--- a/biology/Médecine/Esmirtazapine/Esmirtazapine.xlsx
+++ b/biology/Médecine/Esmirtazapine/Esmirtazapine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'esmirtazapine (ORG-50 081) est une médicament en développement par les laboratoires Organon, dans le cadre du traitement de l'insomnie et des syndromes vasomoteurs (par exemple les bouffées de chaleur) associés à la ménopause[2],[3],[4],[5]. À partir de 2009 les essais cliniques sont entrés en phase III[2]. 
-L'esmirtazapine est l'énantiomère (S)-(+) de la mirtazapine et possède une pharmacologie globalement similaire, y compris l'action agoniste inverse sur les  récepteurs H1 et 5-HT2 et une action antagoniste sur les  récepteurs α2-adrénergiques[2],[6].
+L'esmirtazapine (ORG-50 081) est une médicament en développement par les laboratoires Organon, dans le cadre du traitement de l'insomnie et des syndromes vasomoteurs (par exemple les bouffées de chaleur) associés à la ménopause. À partir de 2009 les essais cliniques sont entrés en phase III. 
+L'esmirtazapine est l'énantiomère (S)-(+) de la mirtazapine et possède une pharmacologie globalement similaire, y compris l'action agoniste inverse sur les  récepteurs H1 et 5-HT2 et une action antagoniste sur les  récepteurs α2-adrénergiques,.
 </t>
         </is>
       </c>
